--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/flight_prelim_extreme_data.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/flight_prelim_extreme_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F7750-E1EA-CA44-A23C-DB937301E175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4AFCE0-7F2C-A24B-90CC-FE1F6246B285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="26880" windowHeight="16660" xr2:uid="{7B0EB56A-DD96-9F4A-80C4-FF3A8A73FC6A}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="26880" windowHeight="16660" xr2:uid="{7B0EB56A-DD96-9F4A-80C4-FF3A8A73FC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -179,14 +179,26 @@
   <si>
     <t>9.17.21</t>
   </si>
+  <si>
+    <t>short winged</t>
+  </si>
+  <si>
+    <t>9.21.21</t>
+  </si>
+  <si>
+    <t>sensor on and off; struggling to get axel to turn</t>
+  </si>
+  <si>
+    <t>had to readjust</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="00#"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="00#"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -413,24 +425,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322886B1-E7FD-B647-8810-B789824E1075}">
   <dimension ref="A1:Q445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5374,8 +5386,12 @@
       <c r="M102" s="11">
         <v>229</v>
       </c>
-      <c r="N102" s="34"/>
-      <c r="O102" s="6"/>
+      <c r="N102" s="34">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P102" s="7"/>
       <c r="Q102" s="11" t="s">
         <v>24</v>
@@ -5446,8 +5462,12 @@
       <c r="M104" s="11">
         <v>65</v>
       </c>
-      <c r="N104" s="34"/>
-      <c r="O104" s="4"/>
+      <c r="N104" s="34">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="P104" s="5"/>
       <c r="Q104" s="12" t="s">
         <v>24</v>
@@ -5491,8 +5511,12 @@
       <c r="M105" s="11">
         <v>222</v>
       </c>
-      <c r="N105" s="34"/>
-      <c r="O105" s="6"/>
+      <c r="N105" s="34">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="11" t="s">
         <v>41</v>
@@ -5536,8 +5560,12 @@
       <c r="M106" s="11">
         <v>34</v>
       </c>
-      <c r="N106" s="34"/>
-      <c r="O106" s="6"/>
+      <c r="N106" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P106" s="7"/>
       <c r="Q106" s="11" t="s">
         <v>24</v>
@@ -5579,8 +5607,12 @@
       <c r="M107" s="11">
         <v>355</v>
       </c>
-      <c r="N107" s="34"/>
-      <c r="O107" s="6"/>
+      <c r="N107" s="34">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="11" t="s">
         <v>41</v>
@@ -5651,8 +5683,12 @@
       <c r="M109" s="11">
         <v>326</v>
       </c>
-      <c r="N109" s="34"/>
-      <c r="O109" s="6"/>
+      <c r="N109" s="34">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="11" t="s">
         <v>41</v>
@@ -5696,8 +5732,12 @@
       <c r="M110" s="11">
         <v>315</v>
       </c>
-      <c r="N110" s="34"/>
-      <c r="O110" s="6"/>
+      <c r="N110" s="34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P110" s="7"/>
       <c r="Q110" s="12" t="s">
         <v>24</v>
@@ -5739,8 +5779,12 @@
       <c r="M111" s="12">
         <v>263</v>
       </c>
-      <c r="N111" s="35"/>
-      <c r="O111" s="9"/>
+      <c r="N111" s="35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="P111" s="10"/>
       <c r="Q111" s="11" t="s">
         <v>41</v>
@@ -5784,8 +5828,12 @@
       <c r="M112" s="12">
         <v>342</v>
       </c>
-      <c r="N112" s="35"/>
-      <c r="O112" s="9"/>
+      <c r="N112" s="35">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="P112" s="10"/>
       <c r="Q112" s="11" t="s">
         <v>24</v>
@@ -5827,8 +5875,12 @@
       <c r="M113" s="12">
         <v>182</v>
       </c>
-      <c r="N113" s="35"/>
-      <c r="O113" s="9"/>
+      <c r="N113" s="35">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="P113" s="10"/>
       <c r="Q113" s="11" t="s">
         <v>41</v>
@@ -5872,8 +5924,12 @@
       <c r="M114" s="12">
         <v>45</v>
       </c>
-      <c r="N114" s="35"/>
-      <c r="O114" s="9"/>
+      <c r="N114" s="35">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P114" s="10"/>
       <c r="Q114" s="11" t="s">
         <v>24</v>
@@ -5917,8 +5973,12 @@
       <c r="M115" s="12">
         <v>124</v>
       </c>
-      <c r="N115" s="35"/>
-      <c r="O115" s="9"/>
+      <c r="N115" s="35">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O115" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P115" s="10"/>
       <c r="Q115" s="11" t="s">
         <v>41</v>
@@ -5960,8 +6020,12 @@
       <c r="M116" s="12">
         <v>369</v>
       </c>
-      <c r="N116" s="35"/>
-      <c r="O116" s="9"/>
+      <c r="N116" s="35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P116" s="10"/>
       <c r="Q116" s="12" t="s">
         <v>24</v>
@@ -6005,8 +6069,12 @@
       <c r="M117" s="12">
         <v>183</v>
       </c>
-      <c r="N117" s="35"/>
-      <c r="O117" s="9"/>
+      <c r="N117" s="35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P117" s="10"/>
       <c r="Q117" s="11" t="s">
         <v>41</v>
@@ -6050,8 +6118,12 @@
       <c r="M118" s="12">
         <v>207</v>
       </c>
-      <c r="N118" s="35"/>
-      <c r="O118" s="9"/>
+      <c r="N118" s="35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P118" s="10"/>
       <c r="Q118" s="11" t="s">
         <v>24</v>
@@ -6095,8 +6167,12 @@
       <c r="M119" s="12">
         <v>193</v>
       </c>
-      <c r="N119" s="35"/>
-      <c r="O119" s="9"/>
+      <c r="N119" s="35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O119" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P119" s="10"/>
       <c r="Q119" s="11" t="s">
         <v>41</v>
@@ -6140,8 +6216,12 @@
       <c r="M120" s="12">
         <v>126</v>
       </c>
-      <c r="N120" s="35"/>
-      <c r="O120" s="9"/>
+      <c r="N120" s="35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P120" s="10"/>
       <c r="Q120" s="11" t="s">
         <v>24</v>
@@ -6183,8 +6263,12 @@
       <c r="M121" s="12">
         <v>26</v>
       </c>
-      <c r="N121" s="35"/>
-      <c r="O121" s="9"/>
+      <c r="N121" s="35">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P121" s="10"/>
       <c r="Q121" s="11" t="s">
         <v>41</v>
@@ -6226,8 +6310,12 @@
       <c r="M122" s="12">
         <v>341</v>
       </c>
-      <c r="N122" s="35"/>
-      <c r="O122" s="9"/>
+      <c r="N122" s="35">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P122" s="10"/>
       <c r="Q122" s="12" t="s">
         <v>24</v>
@@ -6271,8 +6359,12 @@
       <c r="M123" s="12">
         <v>361</v>
       </c>
-      <c r="N123" s="35"/>
-      <c r="O123" s="9"/>
+      <c r="N123" s="35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P123" s="10"/>
       <c r="Q123" s="11" t="s">
         <v>41</v>
@@ -6313,8 +6405,12 @@
       <c r="M124" s="12">
         <v>220</v>
       </c>
-      <c r="N124" s="35"/>
-      <c r="O124" s="9"/>
+      <c r="N124" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="O124" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P124" s="10"/>
       <c r="Q124" s="11" t="s">
         <v>24</v>
@@ -6385,8 +6481,12 @@
       <c r="M126" s="12">
         <v>9</v>
       </c>
-      <c r="N126" s="35"/>
-      <c r="O126" s="9"/>
+      <c r="N126" s="35">
+        <v>0.105</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="P126" s="10"/>
       <c r="Q126" s="11" t="s">
         <v>24</v>
@@ -6430,7 +6530,9 @@
       <c r="M127" s="12">
         <v>149</v>
       </c>
-      <c r="N127" s="35"/>
+      <c r="N127" s="35">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="O127" s="9"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="11" t="s">
@@ -6504,8 +6606,12 @@
       <c r="M129" s="12">
         <v>190</v>
       </c>
-      <c r="N129" s="35"/>
-      <c r="O129" s="9"/>
+      <c r="N129" s="35">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P129" s="10"/>
       <c r="Q129" s="11" t="s">
         <v>41</v>
@@ -6549,8 +6655,12 @@
       <c r="M130" s="12">
         <v>284</v>
       </c>
-      <c r="N130" s="35"/>
-      <c r="O130" s="9"/>
+      <c r="N130" s="35">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P130" s="10"/>
       <c r="Q130" s="11" t="s">
         <v>24</v>
@@ -6594,8 +6704,12 @@
       <c r="M131" s="12">
         <v>226</v>
       </c>
-      <c r="N131" s="35"/>
-      <c r="O131" s="9"/>
+      <c r="N131" s="35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P131" s="10"/>
       <c r="Q131" s="11" t="s">
         <v>41</v>
@@ -6688,31 +6802,57 @@
         <v>295</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="C134" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="24">
+        <v>5</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="30">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="G134" s="30">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H134" s="6">
+        <v>12</v>
+      </c>
+      <c r="I134" s="6">
+        <v>70</v>
+      </c>
       <c r="J134" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
+      <c r="K134" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M134" s="11">
         <v>295</v>
       </c>
-      <c r="N134" s="34"/>
-      <c r="O134" s="6"/>
+      <c r="N134" s="34">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P134" s="7"/>
-      <c r="Q134" s="13"/>
+      <c r="Q134" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="11">
         <v>394</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C135" s="6"/>
       <c r="D135" s="24"/>
       <c r="E135" s="6"/>
@@ -6738,25 +6878,47 @@
         <v>285</v>
       </c>
       <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D136" s="24">
+        <v>5</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136" s="30">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G136" s="30">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H136" s="6">
+        <v>12</v>
+      </c>
+      <c r="I136" s="6">
+        <v>70</v>
+      </c>
       <c r="J136" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K136" s="6"/>
+      <c r="K136" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L136" s="6"/>
       <c r="M136" s="11">
         <v>285</v>
       </c>
-      <c r="N136" s="34"/>
-      <c r="O136" s="6"/>
+      <c r="N136" s="34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P136" s="7"/>
-      <c r="Q136" s="11"/>
+      <c r="Q136" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="11">
@@ -6780,15 +6942,18 @@
       </c>
       <c r="N137" s="34"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="7"/>
+      <c r="P137" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="Q137" s="11"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>302</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
+      <c r="B138" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D138" s="24"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -6806,288 +6971,550 @@
       <c r="N138" s="34"/>
       <c r="O138" s="4"/>
       <c r="P138" s="5"/>
-      <c r="Q138" s="12"/>
+      <c r="Q138" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>215</v>
       </c>
       <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="24">
+        <v>5</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="30">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G139" s="30">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H139" s="6">
+        <v>12</v>
+      </c>
+      <c r="I139" s="6">
+        <v>70</v>
+      </c>
       <c r="J139" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
+      <c r="K139" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M139" s="11">
         <v>215</v>
       </c>
-      <c r="N139" s="34"/>
-      <c r="O139" s="6"/>
+      <c r="N139" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P139" s="7"/>
-      <c r="Q139" s="12"/>
+      <c r="Q139" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>206</v>
       </c>
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="C140" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="24">
+        <v>5</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F140" s="30">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G140" s="30">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H140" s="6">
+        <v>12</v>
+      </c>
+      <c r="I140" s="6">
+        <v>70</v>
+      </c>
       <c r="J140" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K140" s="6"/>
+      <c r="K140" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L140" s="6"/>
       <c r="M140" s="11">
         <v>206</v>
       </c>
-      <c r="N140" s="34"/>
-      <c r="O140" s="6"/>
+      <c r="N140" s="34">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P140" s="7"/>
-      <c r="Q140" s="11"/>
+      <c r="Q140" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>69</v>
       </c>
       <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
+      <c r="C141" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="24">
+        <v>5</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="30">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G141" s="30">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="H141" s="6">
+        <v>12</v>
+      </c>
+      <c r="I141" s="6">
+        <v>70</v>
+      </c>
       <c r="J141" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K141" s="6"/>
+      <c r="K141" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L141" s="6"/>
       <c r="M141" s="11">
         <v>69</v>
       </c>
-      <c r="N141" s="34"/>
-      <c r="O141" s="6"/>
+      <c r="N141" s="34">
+        <v>0.04</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P141" s="7"/>
-      <c r="Q141" s="11"/>
+      <c r="Q141" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>304</v>
       </c>
       <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="C142" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="24">
+        <v>5</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="30">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G142" s="30">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="H142" s="6">
+        <v>12</v>
+      </c>
+      <c r="I142" s="6">
+        <v>70</v>
+      </c>
       <c r="J142" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K142" s="6"/>
+      <c r="K142" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L142" s="6"/>
       <c r="M142" s="11">
         <v>304</v>
       </c>
-      <c r="N142" s="34"/>
-      <c r="O142" s="6"/>
+      <c r="N142" s="34">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P142" s="7"/>
-      <c r="Q142" s="11"/>
+      <c r="Q142" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>151</v>
       </c>
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="C143" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="24">
+        <v>5</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" s="30">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G143" s="30">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="H143" s="6">
+        <v>12</v>
+      </c>
+      <c r="I143" s="6">
+        <v>70</v>
+      </c>
       <c r="J143" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="K143" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M143" s="11">
         <v>151</v>
       </c>
-      <c r="N143" s="34"/>
-      <c r="O143" s="6"/>
+      <c r="N143" s="34">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P143" s="7"/>
-      <c r="Q143" s="11"/>
+      <c r="Q143" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>140</v>
       </c>
       <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="C144" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="24">
+        <v>5</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F144" s="30">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="G144" s="30">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H144" s="6">
+        <v>12</v>
+      </c>
+      <c r="I144" s="6">
+        <v>70</v>
+      </c>
       <c r="J144" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
+      <c r="K144" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M144" s="11">
         <v>140</v>
       </c>
-      <c r="N144" s="34"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="11"/>
+      <c r="N144" s="34">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P144" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q144" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>349</v>
       </c>
       <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
+      <c r="C145" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" s="24">
+        <v>5</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="30">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="G145" s="30">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H145" s="6">
+        <v>12</v>
+      </c>
+      <c r="I145" s="6">
+        <v>70</v>
+      </c>
       <c r="J145" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
+      <c r="K145" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M145" s="11">
         <v>349</v>
       </c>
-      <c r="N145" s="34"/>
-      <c r="O145" s="6"/>
+      <c r="N145" s="34">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P145" s="7"/>
-      <c r="Q145" s="11"/>
+      <c r="Q145" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>228</v>
       </c>
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
+      <c r="C146" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="24">
+        <v>5</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" s="30">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G146" s="30">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H146" s="6">
+        <v>12</v>
+      </c>
+      <c r="I146" s="6">
+        <v>70</v>
+      </c>
       <c r="J146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
+      <c r="K146" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M146" s="11">
         <v>228</v>
       </c>
-      <c r="N146" s="34"/>
-      <c r="O146" s="6"/>
+      <c r="N146" s="34">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P146" s="7"/>
-      <c r="Q146" s="11"/>
+      <c r="Q146" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>227</v>
       </c>
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
+      <c r="C147" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="24">
+        <v>5</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="30">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="G147" s="30">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="H147" s="6">
+        <v>12</v>
+      </c>
+      <c r="I147" s="6">
+        <v>70</v>
+      </c>
       <c r="J147" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K147" s="6"/>
+      <c r="K147" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L147" s="6"/>
       <c r="M147" s="11">
         <v>227</v>
       </c>
-      <c r="N147" s="34"/>
-      <c r="O147" s="6"/>
+      <c r="N147" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P147" s="7"/>
-      <c r="Q147" s="11"/>
+      <c r="Q147" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>154</v>
       </c>
       <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
+      <c r="C148" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="24">
+        <v>5</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="30">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="G148" s="30">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="H148" s="6">
+        <v>12</v>
+      </c>
+      <c r="I148" s="6">
+        <v>70</v>
+      </c>
       <c r="J148" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
+      <c r="K148" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M148" s="11">
         <v>154</v>
       </c>
-      <c r="N148" s="34"/>
-      <c r="O148" s="6"/>
+      <c r="N148" s="34">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P148" s="7"/>
-      <c r="Q148" s="11"/>
+      <c r="Q148" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>191</v>
       </c>
       <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
+      <c r="C149" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="24">
+        <v>6</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" s="30">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="G149" s="30">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H149" s="6">
+        <v>12</v>
+      </c>
+      <c r="I149" s="6">
+        <v>70</v>
+      </c>
       <c r="J149" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
+      <c r="K149" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M149" s="11">
         <v>191</v>
       </c>
-      <c r="N149" s="34"/>
-      <c r="O149" s="6"/>
+      <c r="N149" s="34">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P149" s="7"/>
-      <c r="Q149" s="11"/>
+      <c r="Q149" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>370</v>
       </c>
-      <c r="B150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C150" s="6"/>
       <c r="D150" s="24"/>
       <c r="E150" s="6"/>
@@ -7113,56 +7540,102 @@
         <v>388</v>
       </c>
       <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
+      <c r="C151" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="24">
+        <v>6</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F151" s="30">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="G151" s="30">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="H151" s="6">
+        <v>28</v>
+      </c>
+      <c r="I151" s="6">
+        <v>40</v>
+      </c>
       <c r="J151" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K151" s="6"/>
+      <c r="K151" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L151" s="6"/>
       <c r="M151" s="11">
         <v>388</v>
       </c>
-      <c r="N151" s="34"/>
-      <c r="O151" s="6"/>
+      <c r="N151" s="34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P151" s="7"/>
-      <c r="Q151" s="11"/>
+      <c r="Q151" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>231</v>
       </c>
       <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
+      <c r="C152" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="24">
+        <v>6</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F152" s="30">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G152" s="30">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="H152" s="6">
+        <v>28</v>
+      </c>
+      <c r="I152" s="6">
+        <v>40</v>
+      </c>
       <c r="J152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K152" s="6"/>
+      <c r="K152" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L152" s="6"/>
       <c r="M152" s="11">
         <v>231</v>
       </c>
-      <c r="N152" s="34"/>
-      <c r="O152" s="6"/>
+      <c r="N152" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P152" s="7"/>
-      <c r="Q152" s="11"/>
+      <c r="Q152" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>209</v>
       </c>
-      <c r="B153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C153" s="6"/>
       <c r="D153" s="24"/>
       <c r="E153" s="6"/>
@@ -7188,156 +7661,298 @@
         <v>305</v>
       </c>
       <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
+      <c r="C154" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="24">
+        <v>6</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="30">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="G154" s="30">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="H154" s="6">
+        <v>28</v>
+      </c>
+      <c r="I154" s="6">
+        <v>40</v>
+      </c>
       <c r="J154" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
+      <c r="K154" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M154" s="11">
         <v>305</v>
       </c>
-      <c r="N154" s="34"/>
-      <c r="O154" s="6"/>
+      <c r="N154" s="34">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P154" s="7"/>
-      <c r="Q154" s="11"/>
+      <c r="Q154" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>283</v>
       </c>
       <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
+      <c r="C155" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="24">
+        <v>6</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" s="30">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="G155" s="30">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="H155" s="6">
+        <v>28</v>
+      </c>
+      <c r="I155" s="6">
+        <v>40</v>
+      </c>
       <c r="J155" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
+      <c r="K155" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M155" s="11">
         <v>283</v>
       </c>
-      <c r="N155" s="34"/>
-      <c r="O155" s="6"/>
+      <c r="N155" s="34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P155" s="7"/>
-      <c r="Q155" s="11"/>
+      <c r="Q155" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>240</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
+      <c r="C156" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156" s="24">
+        <v>6</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F156" s="30">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="G156" s="30">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="H156" s="6">
+        <v>28</v>
+      </c>
+      <c r="I156" s="6">
+        <v>40</v>
+      </c>
       <c r="J156" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
+      <c r="K156" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M156" s="11">
         <v>240</v>
       </c>
-      <c r="N156" s="34"/>
-      <c r="O156" s="6"/>
+      <c r="N156" s="34">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P156" s="7"/>
-      <c r="Q156" s="11"/>
+      <c r="Q156" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>201</v>
       </c>
       <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
+      <c r="C157" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="24">
+        <v>6</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F157" s="30">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="G157" s="30">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="H157" s="6">
+        <v>28</v>
+      </c>
+      <c r="I157" s="6">
+        <v>40</v>
+      </c>
       <c r="J157" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
+      <c r="K157" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L157" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M157" s="11">
         <v>201</v>
       </c>
-      <c r="N157" s="34"/>
-      <c r="O157" s="6"/>
+      <c r="N157" s="34">
+        <v>0.104</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P157" s="7"/>
-      <c r="Q157" s="11"/>
+      <c r="Q157" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>10</v>
       </c>
       <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
+      <c r="C158" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="24">
+        <v>6</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F158" s="30">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="G158" s="30">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H158" s="6">
+        <v>28</v>
+      </c>
+      <c r="I158" s="6">
+        <v>40</v>
+      </c>
       <c r="J158" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K158" s="6"/>
+      <c r="K158" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L158" s="6"/>
       <c r="M158" s="11">
         <v>10</v>
       </c>
-      <c r="N158" s="34"/>
-      <c r="O158" s="6"/>
+      <c r="N158" s="34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O158" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P158" s="7"/>
-      <c r="Q158" s="11"/>
+      <c r="Q158" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>363</v>
       </c>
       <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
+      <c r="C159" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="24">
+        <v>6</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F159" s="30">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="G159" s="30">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H159" s="6">
+        <v>28</v>
+      </c>
+      <c r="I159" s="6">
+        <v>40</v>
+      </c>
       <c r="J159" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K159" s="6"/>
+      <c r="K159" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L159" s="6"/>
       <c r="M159" s="11">
         <v>363</v>
       </c>
-      <c r="N159" s="34"/>
-      <c r="O159" s="6"/>
+      <c r="N159" s="34">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="O159" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P159" s="7"/>
-      <c r="Q159" s="11"/>
+      <c r="Q159" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>168</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C160" s="6"/>
       <c r="D160" s="24"/>
       <c r="E160" s="6"/>
@@ -7363,56 +7978,104 @@
         <v>33</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
+      <c r="C161" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="24">
+        <v>6</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F161" s="30">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="G161" s="30">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H161" s="6">
+        <v>28</v>
+      </c>
+      <c r="I161" s="6">
+        <v>40</v>
+      </c>
       <c r="J161" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K161" s="6"/>
+      <c r="K161" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L161" s="6"/>
       <c r="M161" s="11">
         <v>33</v>
       </c>
-      <c r="N161" s="34"/>
-      <c r="O161" s="6"/>
+      <c r="N161" s="34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P161" s="7"/>
-      <c r="Q161" s="11"/>
+      <c r="Q161" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>307</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
+      <c r="C162" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" s="24">
+        <v>6</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" s="30">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="G162" s="30">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H162" s="6">
+        <v>28</v>
+      </c>
+      <c r="I162" s="6">
+        <v>40</v>
+      </c>
       <c r="J162" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
+      <c r="K162" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M162" s="11">
         <v>307</v>
       </c>
-      <c r="N162" s="34"/>
-      <c r="O162" s="6"/>
+      <c r="N162" s="34">
+        <v>0.04</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P162" s="7"/>
-      <c r="Q162" s="11"/>
+      <c r="Q162" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>32</v>
       </c>
-      <c r="B163" s="6"/>
+      <c r="B163" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C163" s="6"/>
       <c r="D163" s="24"/>
       <c r="E163" s="6"/>
@@ -7437,7 +8100,9 @@
       <c r="A164" s="11">
         <v>267</v>
       </c>
-      <c r="B164" s="6"/>
+      <c r="B164" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C164" s="6"/>
       <c r="D164" s="24"/>
       <c r="E164" s="6"/>
@@ -7463,25 +8128,51 @@
         <v>352</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
+      <c r="C165" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D165" s="24">
+        <v>6</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F165" s="30">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="G165" s="30">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="H165" s="6">
+        <v>28</v>
+      </c>
+      <c r="I165" s="6">
+        <v>40</v>
+      </c>
       <c r="J165" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
+      <c r="K165" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M165" s="11">
         <v>352</v>
       </c>
-      <c r="N165" s="34"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="15"/>
+      <c r="N165" s="34">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P165" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q165" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="166" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
@@ -7541,56 +8232,106 @@
         <v>157</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
+      <c r="C167" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="24">
+        <v>6</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F167" s="30">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G167" s="30">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H167" s="6">
+        <v>28</v>
+      </c>
+      <c r="I167" s="6">
+        <v>40</v>
+      </c>
       <c r="J167" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
+      <c r="K167" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M167" s="11">
         <v>157</v>
       </c>
-      <c r="N167" s="34"/>
-      <c r="O167" s="6"/>
+      <c r="N167" s="34">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P167" s="7"/>
-      <c r="Q167" s="13"/>
+      <c r="Q167" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>371</v>
       </c>
       <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
+      <c r="C168" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="24">
+        <v>6</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F168" s="30">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G168" s="30">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="H168" s="6">
+        <v>28</v>
+      </c>
+      <c r="I168" s="6">
+        <v>40</v>
+      </c>
       <c r="J168" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
+      <c r="K168" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M168" s="11">
         <v>371</v>
       </c>
-      <c r="N168" s="34"/>
-      <c r="O168" s="6"/>
+      <c r="N168" s="34">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P168" s="7"/>
-      <c r="Q168" s="11"/>
+      <c r="Q168" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>145</v>
       </c>
-      <c r="B169" s="6"/>
+      <c r="B169" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C169" s="6"/>
       <c r="D169" s="24"/>
       <c r="E169" s="6"/>
@@ -7616,106 +8357,200 @@
         <v>354</v>
       </c>
       <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
+      <c r="C170" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="24">
+        <v>6</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F170" s="30">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="G170" s="30">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="H170" s="6">
+        <v>28</v>
+      </c>
+      <c r="I170" s="6">
+        <v>40</v>
+      </c>
       <c r="J170" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
+      <c r="K170" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L170" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M170" s="11">
         <v>354</v>
       </c>
-      <c r="N170" s="34"/>
-      <c r="O170" s="6"/>
+      <c r="N170" s="34">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O170" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P170" s="7"/>
-      <c r="Q170" s="11"/>
+      <c r="Q170" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>351</v>
       </c>
       <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
+      <c r="C171" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="24">
+        <v>6</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F171" s="30">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G171" s="30">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="H171" s="6">
+        <v>28</v>
+      </c>
+      <c r="I171" s="6">
+        <v>40</v>
+      </c>
       <c r="J171" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
+      <c r="K171" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M171" s="11">
         <v>351</v>
       </c>
-      <c r="N171" s="34"/>
-      <c r="O171" s="6"/>
+      <c r="N171" s="34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O171" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P171" s="7"/>
-      <c r="Q171" s="11"/>
+      <c r="Q171" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>306</v>
       </c>
       <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
+      <c r="C172" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" s="24">
+        <v>6</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F172" s="30">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G172" s="30">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="H172" s="6">
+        <v>28</v>
+      </c>
+      <c r="I172" s="6">
+        <v>40</v>
+      </c>
       <c r="J172" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K172" s="6"/>
+      <c r="K172" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L172" s="6"/>
       <c r="M172" s="11">
         <v>306</v>
       </c>
-      <c r="N172" s="34"/>
-      <c r="O172" s="4"/>
+      <c r="N172" s="34">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O172" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="P172" s="5"/>
-      <c r="Q172" s="12"/>
+      <c r="Q172" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>164</v>
       </c>
       <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="24"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
+      <c r="C173" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" s="24">
+        <v>6</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F173" s="30">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G173" s="30">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="H173" s="6">
+        <v>28</v>
+      </c>
+      <c r="I173" s="6">
+        <v>40</v>
+      </c>
       <c r="J173" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K173" s="6"/>
+      <c r="K173" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L173" s="6"/>
       <c r="M173" s="11">
         <v>164</v>
       </c>
-      <c r="N173" s="34"/>
-      <c r="O173" s="6"/>
+      <c r="N173" s="34">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O173" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P173" s="7"/>
-      <c r="Q173" s="12"/>
+      <c r="Q173" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>121</v>
       </c>
-      <c r="B174" s="6"/>
+      <c r="B174" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C174" s="6"/>
       <c r="D174" s="24"/>
       <c r="E174" s="6"/>
@@ -7741,56 +8576,106 @@
         <v>160</v>
       </c>
       <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
+      <c r="C175" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" s="24">
+        <v>6</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F175" s="30">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="G175" s="30">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="H175" s="6">
+        <v>28</v>
+      </c>
+      <c r="I175" s="6">
+        <v>40</v>
+      </c>
       <c r="J175" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
+      <c r="K175" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L175" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M175" s="11">
         <v>160</v>
       </c>
-      <c r="N175" s="34"/>
-      <c r="O175" s="6"/>
+      <c r="N175" s="34">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O175" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P175" s="7"/>
-      <c r="Q175" s="11"/>
+      <c r="Q175" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>216</v>
       </c>
       <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
+      <c r="C176" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" s="24">
+        <v>6</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F176" s="30">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G176" s="30">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H176" s="6">
+        <v>28</v>
+      </c>
+      <c r="I176" s="6">
+        <v>40</v>
+      </c>
       <c r="J176" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
+      <c r="K176" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L176" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M176" s="11">
         <v>216</v>
       </c>
-      <c r="N176" s="34"/>
-      <c r="O176" s="6"/>
+      <c r="N176" s="34">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O176" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P176" s="7"/>
-      <c r="Q176" s="11"/>
+      <c r="Q176" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>256</v>
       </c>
-      <c r="B177" s="6"/>
+      <c r="B177" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C177" s="6"/>
       <c r="D177" s="24"/>
       <c r="E177" s="6"/>
@@ -7816,31 +8701,57 @@
         <v>27</v>
       </c>
       <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
+      <c r="C178" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178" s="24">
+        <v>6</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F178" s="40">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G178" s="40">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H178" s="6">
+        <v>28</v>
+      </c>
+      <c r="I178" s="6">
+        <v>40</v>
+      </c>
       <c r="J178" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
+      <c r="K178" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L178" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="M178" s="11">
         <v>27</v>
       </c>
-      <c r="N178" s="35"/>
-      <c r="O178" s="9"/>
+      <c r="N178" s="35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O178" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="P178" s="10"/>
-      <c r="Q178" s="11"/>
+      <c r="Q178" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>301</v>
       </c>
-      <c r="B179" s="6"/>
+      <c r="B179" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C179" s="6"/>
       <c r="D179" s="24"/>
       <c r="E179" s="6"/>
@@ -7866,256 +8777,488 @@
         <v>66</v>
       </c>
       <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
+      <c r="C180" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D180" s="24">
+        <v>6</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F180" s="30">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G180" s="30">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="H180" s="6">
+        <v>28</v>
+      </c>
+      <c r="I180" s="6">
+        <v>40</v>
+      </c>
       <c r="J180" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K180" s="6"/>
+      <c r="K180" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L180" s="6"/>
       <c r="M180" s="11">
         <v>66</v>
       </c>
-      <c r="N180" s="34"/>
-      <c r="O180" s="6"/>
+      <c r="N180" s="34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O180" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P180" s="7"/>
-      <c r="Q180" s="11"/>
+      <c r="Q180" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>214</v>
       </c>
       <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
+      <c r="C181" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" s="24">
+        <v>6</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F181" s="30">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="G181" s="30">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="H181" s="6">
+        <v>28</v>
+      </c>
+      <c r="I181" s="6">
+        <v>40</v>
+      </c>
       <c r="J181" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K181" s="6"/>
+      <c r="K181" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="L181" s="6"/>
       <c r="M181" s="11">
         <v>214</v>
       </c>
-      <c r="N181" s="34"/>
-      <c r="O181" s="6"/>
+      <c r="N181" s="34">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O181" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P181" s="7"/>
-      <c r="Q181" s="11"/>
+      <c r="Q181" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>376</v>
       </c>
       <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="24"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
+      <c r="C182" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182" s="24">
+        <v>6</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182" s="30">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="G182" s="30">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="H182" s="6">
+        <v>28</v>
+      </c>
+      <c r="I182" s="6">
+        <v>40</v>
+      </c>
       <c r="J182" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K182" s="6"/>
+      <c r="K182" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L182" s="6"/>
       <c r="M182" s="11">
         <v>376</v>
       </c>
-      <c r="N182" s="34"/>
-      <c r="O182" s="6"/>
+      <c r="N182" s="34">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O182" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P182" s="7"/>
-      <c r="Q182" s="11"/>
+      <c r="Q182" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>280</v>
       </c>
       <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
+      <c r="C183" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" s="24">
+        <v>6</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F183" s="30">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="G183" s="30">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="H183" s="6">
+        <v>28</v>
+      </c>
+      <c r="I183" s="6">
+        <v>40</v>
+      </c>
       <c r="J183" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K183" s="6"/>
+      <c r="K183" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L183" s="6"/>
       <c r="M183" s="11">
         <v>280</v>
       </c>
-      <c r="N183" s="34"/>
-      <c r="O183" s="6"/>
+      <c r="N183" s="34">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O183" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P183" s="7"/>
-      <c r="Q183" s="11"/>
+      <c r="Q183" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>322</v>
       </c>
       <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
+      <c r="C184" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="24">
+        <v>6</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184" s="30">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="G184" s="30">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="H184" s="6">
+        <v>28</v>
+      </c>
+      <c r="I184" s="6">
+        <v>40</v>
+      </c>
       <c r="J184" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K184" s="6"/>
+      <c r="K184" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L184" s="6"/>
       <c r="M184" s="11">
         <v>322</v>
       </c>
-      <c r="N184" s="34"/>
-      <c r="O184" s="6"/>
+      <c r="N184" s="34">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O184" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P184" s="7"/>
-      <c r="Q184" s="11"/>
+      <c r="Q184" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="11">
         <v>396</v>
       </c>
       <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
+      <c r="C185" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" s="24">
+        <v>6</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" s="30">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G185" s="30">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="H185" s="6">
+        <v>28</v>
+      </c>
+      <c r="I185" s="6">
+        <v>40</v>
+      </c>
       <c r="J185" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
+      <c r="K185" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M185" s="11">
         <v>396</v>
       </c>
-      <c r="N185" s="34"/>
-      <c r="O185" s="6"/>
+      <c r="N185" s="34">
+        <v>0.04</v>
+      </c>
+      <c r="O185" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P185" s="7"/>
-      <c r="Q185" s="11"/>
+      <c r="Q185" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="11">
         <v>333</v>
       </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
+      <c r="C186" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D186" s="24">
+        <v>6</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F186" s="30">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G186" s="30">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="H186" s="6">
+        <v>28</v>
+      </c>
+      <c r="I186" s="6">
+        <v>40</v>
+      </c>
       <c r="J186" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
+      <c r="K186" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M186" s="11">
         <v>333</v>
       </c>
-      <c r="N186" s="34"/>
-      <c r="O186" s="6"/>
+      <c r="N186" s="34">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O186" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P186" s="7"/>
-      <c r="Q186" s="11"/>
+      <c r="Q186" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="11">
         <v>142</v>
       </c>
       <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
+      <c r="C187" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="24">
+        <v>6</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F187" s="30">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="G187" s="30">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="H187" s="6">
+        <v>28</v>
+      </c>
+      <c r="I187" s="6">
+        <v>40</v>
+      </c>
       <c r="J187" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
+      <c r="K187" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L187" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M187" s="11">
         <v>142</v>
       </c>
-      <c r="N187" s="34"/>
-      <c r="O187" s="6"/>
+      <c r="N187" s="34">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O187" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P187" s="7"/>
-      <c r="Q187" s="11"/>
+      <c r="Q187" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="11">
         <v>218</v>
       </c>
       <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
+      <c r="C188" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188" s="24">
+        <v>6</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F188" s="30">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G188" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H188" s="6">
+        <v>28</v>
+      </c>
+      <c r="I188" s="6">
+        <v>40</v>
+      </c>
       <c r="J188" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
+      <c r="K188" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L188" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="M188" s="11">
         <v>218</v>
       </c>
-      <c r="N188" s="34"/>
-      <c r="O188" s="6"/>
+      <c r="N188" s="34">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O188" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P188" s="7"/>
-      <c r="Q188" s="11"/>
+      <c r="Q188" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>139</v>
       </c>
       <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
+      <c r="C189" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="24">
+        <v>6</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F189" s="30">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G189" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="H189" s="6">
+        <v>28</v>
+      </c>
+      <c r="I189" s="6">
+        <v>40</v>
+      </c>
       <c r="J189" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
+      <c r="K189" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L189" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="M189" s="11">
         <v>139</v>
       </c>
-      <c r="N189" s="34"/>
-      <c r="O189" s="6"/>
+      <c r="N189" s="34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O189" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P189" s="7"/>
-      <c r="Q189" s="11"/>
+      <c r="Q189" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="11">
         <v>16</v>
       </c>
-      <c r="B190" s="6"/>
+      <c r="B190" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C190" s="6"/>
       <c r="D190" s="24"/>
       <c r="E190" s="6"/>
@@ -8141,25 +9284,47 @@
         <v>62</v>
       </c>
       <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
+      <c r="C191" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="24">
+        <v>6</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F191" s="30">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G191" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H191" s="6">
+        <v>28</v>
+      </c>
+      <c r="I191" s="6">
+        <v>40</v>
+      </c>
       <c r="J191" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K191" s="6"/>
+      <c r="K191" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L191" s="6"/>
       <c r="M191" s="11">
         <v>62</v>
       </c>
-      <c r="N191" s="34"/>
-      <c r="O191" s="6"/>
+      <c r="N191" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O191" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P191" s="7"/>
-      <c r="Q191" s="11"/>
+      <c r="Q191" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="11">
